--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/Documents/Programação/automacao-busca-precos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBBA1D8-AE2D-5748-BD81-318C6CCB41F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166B15C0-F645-524A-B3E1-9A4981C4953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2680" windowWidth="25880" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3240" windowWidth="25880" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Leroy" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Amoedo" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Obramax" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Pesquisa de Preços" sheetId="7" r:id="rId7"/>
+    <sheet name="Histórico" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
   <si>
     <t>Código</t>
   </si>
@@ -46,46 +48,34 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Qtde.</t>
-  </si>
-  <si>
-    <t>Custo Final</t>
-  </si>
-  <si>
-    <t>% Margem</t>
-  </si>
-  <si>
     <t>Preço</t>
-  </si>
-  <si>
-    <t>Dt Compra</t>
   </si>
   <si>
     <t>CALHA TUBO DESCIDA 3M MARROM</t>
   </si>
   <si>
-    <t>SIKA TOP 107 18KG</t>
+    <t>IMPERMEABILIZANTE SIKA TOP 107 18KG SIKA</t>
   </si>
   <si>
-    <t>VIAPLUS TOP CX 18 kg</t>
+    <t>IMPERMEABILIZANTE VIAPLUS TOP 18 kg VIAPOL</t>
   </si>
   <si>
-    <t>VIAMANTA MULTIUSO 3MM</t>
+    <t>MANTA ASFÁLTICA VIAMANTA MULTIUSO 3MM VIAPOL</t>
   </si>
   <si>
     <t>CONTRA UMIDADE BD 18 l</t>
   </si>
   <si>
-    <t>FIO CABO FLEXIVEL 1,5MM BRANCO ROLO 100MTS CORFIO</t>
+    <t>FIO CABO FLEXIVEL 1,5MM BRANCO ROLO 100M CORFIO</t>
   </si>
   <si>
-    <t>FIO CABO FLEXIVEL 2,5MM AZUL ROLO 100MTS CORFIO</t>
+    <t>FIO CABO FLEXIVEL 2,5MM AZUL ROLO 100M CORFIO</t>
   </si>
   <si>
-    <t>FIO CABO FLEXIVEL 2,5MM PRETO ROLO 100MTS CORFIO</t>
+    <t>FIO CABO FLEXIVEL 2,5MM PRETO ROLO 100M CORFIO</t>
   </si>
   <si>
-    <t>MICTORIO S/KIT INSTALACAO DALIA BR</t>
+    <t>MICTORIO S/KIT INSTALACAO BRANCO DALIA</t>
   </si>
   <si>
     <t>CUBA DE APOIO RETANGULAR 41CM X 31CM BRANCO</t>
@@ -100,22 +90,22 @@
     <t>CAIXA GORDURA 40 X 41 X 41 PRETA STAND C/CESTO METASUL</t>
   </si>
   <si>
-    <t>GRAFFIATO PREMIUM RISCADO BRANCO NEVE BALDE 25 KG</t>
+    <t>GRAFFIATO PREMIUM RISCADO BRANCO NEVE BALDE 25KG</t>
   </si>
   <si>
-    <t>RESINA ACRILICA ACQUA 18 LTS INCOLOR HYDRONORTH</t>
+    <t>RESINA ACRILICA ACQUA 18L INCOLOR HYDRONORTH</t>
   </si>
   <si>
-    <t>REJUNTE ACRILICO PREMIUM (AB) CORDA 1KG PK</t>
+    <t>REJUNTE ACRILICO PREMIUM CORDA 1KG PORTOKOLL</t>
   </si>
   <si>
-    <t>ARGAMASSA PORCELANATO INTERIORES PLUS CINZA ACII 20KG PK</t>
+    <t>ARGAMASSA PORCELANATO INTERIORES PLUS CINZA ACII 20KG PORTOKOLL</t>
   </si>
   <si>
     <t>ARGAMASSA ACI 20KG SANTA LUZIA</t>
   </si>
   <si>
-    <t>ARGAMASSA PORCELANATO INTERNO TIPO ACll 20 Kg SANTA LUZIA</t>
+    <t>ARGAMASSA PORCELANATO INTERNO TIPO ACll 20Kg SANTA LUZIA</t>
   </si>
   <si>
     <t>ENGATE FLEXIVEL INOX 60CM 1/2 DN15</t>
@@ -192,17 +182,160 @@
   <si>
     <t>OBRAMAX</t>
   </si>
+  <si>
+    <t>leroymerlin</t>
+  </si>
+  <si>
+    <t>chatuba</t>
+  </si>
+  <si>
+    <t>obramax</t>
+  </si>
+  <si>
+    <t>amoedo</t>
+  </si>
+  <si>
+    <t>sepa</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>25/10/24</t>
+  </si>
+  <si>
+    <t>Loja</t>
+  </si>
+  <si>
+    <t>Leroymerlin</t>
+  </si>
+  <si>
+    <t>Chatuba</t>
+  </si>
+  <si>
+    <t>Obramax</t>
+  </si>
+  <si>
+    <t>Amoedo</t>
+  </si>
+  <si>
+    <t>Sepa</t>
+  </si>
+  <si>
+    <t>Descrição Original</t>
+  </si>
+  <si>
+    <t>Descrição Padronizada</t>
+  </si>
+  <si>
+    <t>AMANCO TUBO PVC ESGOTO 100 X 6M (10472)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANCO CAIXA SIF GORDURA 250 X 172 X 50 (12682) </t>
+  </si>
+  <si>
+    <t>CALHA TUBO DE DESCIDA COM 3M MARROM</t>
+  </si>
+  <si>
+    <t>SIKA TOP 107 18KG</t>
+  </si>
+  <si>
+    <t>VIAPLUS TOP CX 18 kg</t>
+  </si>
+  <si>
+    <t>VIAMANTA MULTIUSO 3MM</t>
+  </si>
+  <si>
+    <t>FIO CABO FLEXIVEL 1,5MM BRANCO ROLO 100MTS - CORFIO</t>
+  </si>
+  <si>
+    <t>FIO CABO FLEXIVEL 2,5MM AZUL ROLO 100MTS - CORFIO</t>
+  </si>
+  <si>
+    <t>FIO CABO FLEXIVEL 2,5MM PRETO ROLO 100MTS - CORFIO</t>
+  </si>
+  <si>
+    <t>MICTORIO S/KIT INSTALACAO DALIA BR 55MC882-1FB</t>
+  </si>
+  <si>
+    <t>CUBA DE APOIO RETANGULAR 41CM X 31CM BRANCO 55CB16-1FB</t>
+  </si>
+  <si>
+    <t>COMBO SPAN SQUARE (28989BR-0) KOHLER</t>
+  </si>
+  <si>
+    <t>COMBO LIRIO BRANCO 55KT77-1FB</t>
+  </si>
+  <si>
+    <t>GRAFFIATO PREMIUM RISCADO BRANCO NEVE BALDE 25 KG</t>
+  </si>
+  <si>
+    <t>RESINA ACRILICA ACQUA 18 LTS INCOLOR -  HYDRONORTH</t>
+  </si>
+  <si>
+    <t>REJUNTE ACRILICO PREMIUM (AB) CORDA 1KG PK</t>
+  </si>
+  <si>
+    <t>ARGAMASSA PORCELANATO INTERIORES PLUS CINZA ACII 20KG PK</t>
+  </si>
+  <si>
+    <t>ARGAMASSA PORCELANATO INTERNO TIPO ACll 20 Kg SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>2167 ABS PURIFICADOR AGUA PIA COZ/PAREDE C33 1/4 V DN15 PRETA 13078</t>
+  </si>
+  <si>
+    <t>2159 ABS PURIFICADOR DE AGUA PIA COZ/PZ 33 1/4 V DN BRANCA/CR 9526</t>
+  </si>
+  <si>
+    <t>1739 DUCHA HIGIENICA ABS C50 1/4 V 1/2 DN15 BR POP FLEXIVEL PVC 17769</t>
+  </si>
+  <si>
+    <t>ESMERILHADEIRA 4.1/2" EAV650 C/DISC 127V VONDER</t>
+  </si>
+  <si>
+    <t>FURADEIRA/PARAFUSADEIRA 3/8" FPV300 127V VONDER</t>
+  </si>
+  <si>
+    <t>MOTO COMPRESSOR AR DIRETO G3 C/M 1/3HP</t>
+  </si>
+  <si>
+    <t>ROCADEIRA LATERAL TOYAMA TBC43H 42.7CC GAS 2T LAMINA E CARRETEL NYLON</t>
+  </si>
+  <si>
+    <t>DUCHA MAXI BANHO C/ CANO 127/5500 LORENZETTI (7530297)</t>
+  </si>
+  <si>
+    <t>DUCHA FUTURA MULTI 127/5500 LORENZETTI (7531280)</t>
+  </si>
+  <si>
+    <t>BACIA IZY BRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA ACOPLADA FAST/JADE/SPOT/RAVENA/ASPEN/IZY BRANCO </t>
+  </si>
+  <si>
+    <t>AMANCO CAIXA SIF GORDURA 250X172X50</t>
+  </si>
+  <si>
+    <t>AMANCO TUBO PVC ESGOTO 100X6M</t>
+  </si>
+  <si>
+    <t>CONTRA UMIDADE BD 18L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,12 +415,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -314,10 +441,27 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -352,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -442,13 +586,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -479,17 +649,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,7 +686,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,14 +694,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,46 +706,49 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,2095 +1128,1325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G219"/>
+  <dimension ref="A2:C219"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="21" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:3" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="B3" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="B4" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="B5" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="B6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="B7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="B8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="45">
-        <v>2</v>
-      </c>
-      <c r="B4" s="45" t="s">
+      <c r="B9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="45">
-        <v>3</v>
-      </c>
-      <c r="B5" s="45" t="s">
+      <c r="B10" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45">
-        <v>4</v>
-      </c>
-      <c r="B6" s="45" t="s">
+      <c r="B11" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45">
-        <v>5</v>
-      </c>
-      <c r="B7" s="45" t="s">
+      <c r="B12" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="37">
         <v>11</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="45">
-        <v>6</v>
-      </c>
-      <c r="B8" s="45" t="s">
+      <c r="B13" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="45">
-        <v>7</v>
-      </c>
-      <c r="B9" s="45" t="s">
+      <c r="B14" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="37">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="45">
-        <v>8</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="B15" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="37">
         <v>14</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="45">
-        <v>9</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="B16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="37">
         <v>15</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="45">
-        <v>10</v>
-      </c>
-      <c r="B12" s="45" t="s">
+      <c r="B17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
         <v>16</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="45">
-        <v>11</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="B18" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="37">
         <v>17</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="45">
-        <v>12</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="B19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="37">
         <v>18</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="45">
-        <v>13</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="B20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="37">
         <v>19</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="45">
-        <v>14</v>
-      </c>
-      <c r="B16" s="45" t="s">
+      <c r="B21" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
         <v>20</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45">
-        <v>15</v>
-      </c>
-      <c r="B17" s="45" t="s">
+      <c r="B22" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="37">
         <v>21</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45">
-        <v>16</v>
-      </c>
-      <c r="B18" s="45" t="s">
+      <c r="B23" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
         <v>22</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="45">
-        <v>17</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="B24" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="37">
         <v>23</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="45">
-        <v>18</v>
-      </c>
-      <c r="B20" s="45" t="s">
+      <c r="B25" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
         <v>24</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45">
-        <v>19</v>
-      </c>
-      <c r="B21" s="45" t="s">
+      <c r="B26" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="37">
         <v>25</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45">
-        <v>20</v>
-      </c>
-      <c r="B22" s="45" t="s">
+      <c r="B27" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
         <v>26</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="45">
-        <v>21</v>
-      </c>
-      <c r="B23" s="45" t="s">
+      <c r="B28" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="37">
         <v>27</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="45">
-        <v>22</v>
-      </c>
-      <c r="B24" s="45" t="s">
+      <c r="B29" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="37">
         <v>28</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="45">
-        <v>23</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="B30" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="37">
         <v>29</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="45">
-        <v>24</v>
-      </c>
-      <c r="B26" s="45" t="s">
+      <c r="B31" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="37">
         <v>30</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="45">
-        <v>25</v>
-      </c>
-      <c r="B27" s="45" t="s">
+      <c r="B32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="37">
         <v>31</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>32</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="37">
+        <v>33</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="37">
+        <v>34</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="42"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="42"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="42"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="42"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="42"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="42"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="42"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="32"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C54" s="43"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="32"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C55" s="43"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="32"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C56" s="43"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="32"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C57" s="43"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="32"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C58" s="43"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="32"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C59" s="43"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="32"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C60" s="43"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="32"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C61" s="43"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="32"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C62" s="43"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="32"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C63" s="43"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="32"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C64" s="43"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="32"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C65" s="43"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="32"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C66" s="43"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="32"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C67" s="43"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="32"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C68" s="43"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="32"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C69" s="43"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="32"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C70" s="43"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="32"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C71" s="43"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="32"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C72" s="43"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="32"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C73" s="43"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="32"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C74" s="43"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="32"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C75" s="43"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="32"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C76" s="43"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C77" s="43"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="32"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C78" s="43"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="32"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C79" s="43"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="32"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C80" s="43"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="32"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C81" s="43"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="32"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C82" s="43"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="32"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C83" s="43"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="32"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C84" s="43"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="32"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C85" s="43"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="32"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C86" s="43"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="32"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C87" s="43"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="32"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C88" s="43"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="32"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C89" s="43"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="32"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C90" s="43"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C91" s="43"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="32"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C92" s="43"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="32"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C93" s="43"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="32"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C94" s="43"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="32"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C95" s="43"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="32"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C96" s="43"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
       <c r="B97" s="32"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="32"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C97" s="43"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="B98" s="32"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="32"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C98" s="43"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
       <c r="B99" s="32"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="32"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C99" s="43"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
       <c r="B100" s="32"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="32"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C100" s="43"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
       <c r="B101" s="32"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="32"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C101" s="43"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
       <c r="B102" s="32"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="32"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C102" s="43"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
       <c r="B103" s="32"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="32"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C103" s="43"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
       <c r="B104" s="32"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="32"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C104" s="43"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
       <c r="B105" s="32"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="32"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C105" s="43"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="B106" s="32"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="32"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C106" s="43"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="32"/>
       <c r="B107" s="32"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="32"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C107" s="43"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="32"/>
       <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="32"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C108" s="43"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="32"/>
       <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="32"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C109" s="43"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="32"/>
       <c r="B110" s="32"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="32"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C110" s="43"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="32"/>
       <c r="B111" s="32"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="32"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C111" s="43"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="32"/>
       <c r="B112" s="32"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="32"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C112" s="43"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="32"/>
       <c r="B113" s="32"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="32"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C113" s="43"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="32"/>
       <c r="B114" s="32"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="32"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C114" s="43"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
       <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="32"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C115" s="43"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="32"/>
       <c r="B116" s="32"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="32"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C116" s="43"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="32"/>
       <c r="B117" s="32"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="32"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C117" s="43"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="32"/>
       <c r="B118" s="32"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="32"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C118" s="43"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="32"/>
       <c r="B119" s="32"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="32"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C119" s="43"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="32"/>
       <c r="B120" s="32"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="32"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C120" s="43"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="32"/>
       <c r="B121" s="32"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="32"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C121" s="43"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="32"/>
       <c r="B122" s="32"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="32"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C122" s="43"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="32"/>
       <c r="B123" s="32"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="32"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C123" s="43"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
       <c r="B124" s="32"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="32"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C124" s="43"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
       <c r="B125" s="32"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="32"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C125" s="43"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
       <c r="B126" s="32"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="32"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C126" s="43"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
       <c r="B127" s="32"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="32"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C127" s="43"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="32"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C128" s="43"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="32"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C129" s="43"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="32"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C130" s="43"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="32"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C131" s="43"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="32"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C132" s="43"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="32"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C133" s="43"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="32"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C134" s="43"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="32"/>
       <c r="B135" s="32"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="32"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C135" s="43"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="32"/>
       <c r="B136" s="32"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="32"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C136" s="43"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="32"/>
       <c r="B137" s="32"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="32"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C137" s="43"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="32"/>
       <c r="B138" s="32"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="32"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C138" s="43"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="32"/>
       <c r="B139" s="32"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="32"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C139" s="43"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="32"/>
       <c r="B140" s="32"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="32"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C140" s="43"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="32"/>
       <c r="B141" s="32"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="32"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C141" s="43"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="32"/>
       <c r="B142" s="32"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="32"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C142" s="43"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="32"/>
       <c r="B143" s="32"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="32"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C143" s="43"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="32"/>
       <c r="B144" s="32"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="32"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C144" s="43"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="32"/>
       <c r="B145" s="32"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="32"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C145" s="43"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="32"/>
       <c r="B146" s="32"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="32"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C146" s="43"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="32"/>
       <c r="B147" s="32"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="32"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C147" s="43"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="32"/>
       <c r="B148" s="32"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="32"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C148" s="43"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="32"/>
       <c r="B149" s="32"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="32"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C149" s="43"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="32"/>
       <c r="B150" s="32"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="32"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C150" s="43"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="32"/>
       <c r="B151" s="32"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="32"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C151" s="43"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="32"/>
       <c r="B152" s="32"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="32"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C152" s="43"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="32"/>
       <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="32"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C153" s="43"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="32"/>
       <c r="B154" s="32"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="32"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C154" s="43"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="32"/>
       <c r="B155" s="32"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="32"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C155" s="43"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="32"/>
       <c r="B156" s="32"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="32"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C156" s="43"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="32"/>
       <c r="B157" s="32"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="32"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C157" s="43"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="32"/>
       <c r="B158" s="32"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="32"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C158" s="43"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="32"/>
       <c r="B159" s="32"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="32"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C159" s="43"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="32"/>
       <c r="B160" s="32"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="32"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C160" s="43"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="32"/>
       <c r="B161" s="32"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="32"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C161" s="43"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="32"/>
       <c r="B162" s="32"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="32"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C162" s="43"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="32"/>
       <c r="B163" s="32"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="32"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C163" s="43"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="32"/>
       <c r="B164" s="32"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="32"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C164" s="43"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="32"/>
       <c r="B165" s="32"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="32"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C165" s="43"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="32"/>
       <c r="B166" s="32"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="32"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C166" s="43"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="32"/>
       <c r="B167" s="32"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="32"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C167" s="43"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="32"/>
       <c r="B168" s="32"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="32"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C168" s="43"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="32"/>
       <c r="B169" s="32"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="32"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C169" s="43"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="32"/>
       <c r="B170" s="32"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="32"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C170" s="43"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="32"/>
       <c r="B171" s="32"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="32"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C171" s="43"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="32"/>
       <c r="B172" s="32"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="32"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C172" s="43"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="32"/>
       <c r="B173" s="32"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="32"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C173" s="43"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="32"/>
       <c r="B174" s="32"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="32"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C174" s="43"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="32"/>
       <c r="B175" s="32"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="32"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C175" s="43"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="32"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C176" s="43"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="32"/>
       <c r="B177" s="32"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="32"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C177" s="43"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="32"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C178" s="43"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="32"/>
       <c r="B179" s="32"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="32"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C179" s="43"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="32"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C180" s="43"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="32"/>
       <c r="B181" s="32"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="32"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C181" s="43"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="32"/>
       <c r="B182" s="32"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="32"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C182" s="43"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="32"/>
       <c r="B183" s="32"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="32"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C183" s="43"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="32"/>
       <c r="B184" s="32"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="32"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C184" s="43"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="32"/>
       <c r="B185" s="32"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="32"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C185" s="43"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="32"/>
       <c r="B186" s="32"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="32"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C186" s="43"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="32"/>
       <c r="B187" s="32"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="32"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C187" s="43"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="32"/>
       <c r="B188" s="32"/>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="32"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C188" s="43"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="32"/>
       <c r="B189" s="32"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="36"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="32"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C189" s="43"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="32"/>
       <c r="B190" s="32"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="32"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C190" s="43"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="32"/>
       <c r="B191" s="32"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="32"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C191" s="43"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="32"/>
       <c r="B192" s="32"/>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="32"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C192" s="43"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="32"/>
       <c r="B193" s="32"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="36"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="32"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C193" s="43"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="32"/>
       <c r="B194" s="32"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="32"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C194" s="43"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="32"/>
       <c r="B195" s="32"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="36"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="32"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C195" s="43"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="32"/>
       <c r="B196" s="32"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="36"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="32"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C196" s="43"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="32"/>
       <c r="B197" s="32"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="36"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="32"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C197" s="43"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="32"/>
       <c r="B198" s="32"/>
-      <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="36"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="32"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C198" s="43"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="32"/>
       <c r="B199" s="32"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="36"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="32"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C199" s="43"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="32"/>
       <c r="B200" s="32"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="36"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="32"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C200" s="43"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="32"/>
       <c r="B201" s="32"/>
-      <c r="C201" s="33"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="32"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C201" s="43"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="32"/>
       <c r="B202" s="32"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="36"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="32"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C202" s="43"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="32"/>
       <c r="B203" s="32"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="32"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C203" s="43"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="32"/>
       <c r="B204" s="32"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="32"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C204" s="43"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="32"/>
       <c r="B205" s="32"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="32"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C205" s="43"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="32"/>
       <c r="B206" s="32"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="36"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="32"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C206" s="43"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="32"/>
       <c r="B207" s="32"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="36"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="32"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C207" s="43"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="32"/>
       <c r="B208" s="32"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="36"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="32"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C208" s="43"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="32"/>
       <c r="B209" s="32"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="36"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="32"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C209" s="43"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="32"/>
       <c r="B210" s="32"/>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="36"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="32"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C210" s="43"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="32"/>
       <c r="B211" s="32"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="36"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="32"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C211" s="43"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="32"/>
       <c r="B212" s="32"/>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="36"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="32"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C212" s="43"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="32"/>
       <c r="B213" s="32"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="36"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="32"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C213" s="43"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="32"/>
       <c r="B214" s="32"/>
-      <c r="C214" s="33"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="36"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="32"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C214" s="43"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="32"/>
       <c r="B215" s="32"/>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="36"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="32"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C215" s="43"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="32"/>
       <c r="B216" s="32"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="36"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="32"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C216" s="43"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="32"/>
       <c r="B217" s="32"/>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="36"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="32"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C217" s="43"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="32"/>
       <c r="B218" s="32"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="36"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="32"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C218" s="43"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="32"/>
       <c r="B219" s="32"/>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="36"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="32"/>
+      <c r="C219" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3110,63 +2510,63 @@
     <row r="2" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -8043,7 +7443,7 @@
       <c r="C1" s="22">
         <v>3</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="33">
         <v>4</v>
       </c>
       <c r="E1" s="23">
@@ -8080,68 +7480,68 @@
     <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="O3" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13076,7 +12476,7 @@
       <c r="C1" s="20">
         <v>3</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="34">
         <v>4</v>
       </c>
       <c r="E1" s="19">
@@ -13113,65 +12513,65 @@
     <row r="2" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18120,7 +17520,7 @@
       <c r="C1" s="20">
         <v>3</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="34">
         <v>4</v>
       </c>
       <c r="E1" s="19">
@@ -18157,65 +17557,65 @@
     <row r="2" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23101,7 +22501,7 @@
       <c r="C1" s="20">
         <v>3</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="34">
         <v>4</v>
       </c>
       <c r="E1" s="19">
@@ -23138,65 +22538,65 @@
     <row r="2" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+        <v>28</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -28107,4 +27507,961 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>169.9</v>
+      </c>
+      <c r="D2">
+        <v>229.9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>199.9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>159.9</v>
+      </c>
+      <c r="D3">
+        <v>159.9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>63.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>334.9</v>
+      </c>
+      <c r="D5">
+        <v>329.9</v>
+      </c>
+      <c r="E5">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>209</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>167.9</v>
+      </c>
+      <c r="D15">
+        <v>193.7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>169.9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>159.9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>334.9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>167.9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>229.9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>159.9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>63.99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>329.9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>193.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>199.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>